--- a/upload_datetime_autocom_input.xlsx
+++ b/upload_datetime_autocom_input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>switch1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2018-04-09 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2018-04-09 00:01:00.0</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>exists</t>
   </si>
 </sst>
 </file>
@@ -50,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,7 +382,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +390,7 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -392,22 +407,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
